--- a/data/income_statement/1digit/size/N_IS_MEDIUM.xlsx
+++ b/data/income_statement/1digit/size/N_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>N-Administrative and support service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>N-Administrative and support service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1109 +841,1254 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>6116858.64305</v>
+        <v>6187327.64812</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6826609.60229</v>
+        <v>6883065.55237</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8863947.588890001</v>
+        <v>8977818.99243</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>9762304.25355</v>
+        <v>9924145.021919999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>12335497.21337</v>
+        <v>12578835.57907</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>14427621.1395</v>
+        <v>14789960.85086</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>17259134.95412</v>
+        <v>17817668.82071</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>18799878.5023</v>
+        <v>19142435.78902</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>26040635.50758</v>
+        <v>26014743.02647</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>30721896.98187</v>
+        <v>31814292.47696</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>35759224.08837</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>36597281.86679001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>25866260.645</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4961286.72135</v>
+        <v>5034042.57102</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>5655873.24724</v>
+        <v>5703497.453600001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>7149880.26447</v>
+        <v>7244294.235960001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>7908642.6633</v>
+        <v>8028707.0943</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>10141376.06165</v>
+        <v>10405105.83342</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>11857330.80715</v>
+        <v>12172658.17293</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>13956468.98521</v>
+        <v>14356723.13492</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>16002630.3562</v>
+        <v>16343111.93816</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>21000956.11442</v>
+        <v>21056871.73959</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>24355019.19418</v>
+        <v>25331431.79084</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>26030113.74966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>26831256.68517</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>22547162.112</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1025778.01881</v>
+        <v>1029564.16201</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1009279.30691</v>
+        <v>1020714.85384</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1479698.22354</v>
+        <v>1492604.96102</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1608235.27848</v>
+        <v>1651351.28902</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1903160.18938</v>
+        <v>1883687.51583</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2162678.86023</v>
+        <v>2203634.14864</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2821045.936259999</v>
+        <v>2981553.79318</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2222431.83416</v>
+        <v>2250150.302519999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>4293585.97285</v>
+        <v>4257859.30873</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>5475719.055029999</v>
+        <v>5571977.196610001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>8733591.04321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>8759362.706190001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2579676.088</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>129793.90289</v>
+        <v>123720.91509</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>161457.04814</v>
+        <v>158853.24493</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>234369.10088</v>
+        <v>240919.79545</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>245426.31177</v>
+        <v>244086.6386</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>290960.96234</v>
+        <v>290042.22982</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>407611.47212</v>
+        <v>413668.52929</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>481620.03265</v>
+        <v>479391.89261</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>574816.31194</v>
+        <v>549173.5483400001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>746093.42031</v>
+        <v>700011.97815</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>891158.73266</v>
+        <v>910883.48951</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>995519.2955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1006662.47543</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>739422.4449999999</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>53040.503</v>
+        <v>58873.08772</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>60575.65375</v>
+        <v>59446.99999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>68960.54458</v>
+        <v>69553.24753000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>69340.63282000001</v>
+        <v>70670.32746000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>93978.24447999999</v>
+        <v>143045.24104</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>278516.09098</v>
+        <v>306953.52002</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>135187.50864</v>
+        <v>141145.01945</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>216280.96593</v>
+        <v>215860.04469</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>264520.89625</v>
+        <v>273251.98308</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>503780.9192799999</v>
+        <v>653391.48644</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>468339.1977799999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>459797.6260399999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>615792.667</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>37044.34419</v>
+        <v>36798.50393</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>44206.31555</v>
+        <v>42470.44756999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>52565.06413</v>
+        <v>53445.29754000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>54908.54188</v>
+        <v>55597.95882999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>74051.76871</v>
+        <v>75438.97181</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>252242.90161</v>
+        <v>254090.2314500001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>116946.78469</v>
+        <v>118870.23582</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>202258.77641</v>
+        <v>200672.76253</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>234387.4884599999</v>
+        <v>238477.48514</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>449570.19067</v>
+        <v>458494.55269</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>430496.94466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>402894.9618600001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>519634.602</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>13450.66983</v>
+        <v>19676.36367</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>13152.04144</v>
+        <v>13852.16141</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>14255.24237</v>
+        <v>14168.81903</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>13884.39613</v>
+        <v>14370.71161</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>17689.61877</v>
+        <v>65630.74753000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>24741.13815</v>
+        <v>51493.51349</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>16743.07684</v>
+        <v>20954.03914</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>11471.39602</v>
+        <v>9173.393980000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>21971.31242</v>
+        <v>24540.32183</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>42839.79986</v>
+        <v>187343.52904</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>27135.39991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>50063.79845</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>76764.838</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2545.48898</v>
+        <v>2398.22012</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>3217.29676</v>
+        <v>3124.39101</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2140.23808</v>
+        <v>1939.13096</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>547.69481</v>
+        <v>701.65702</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2236.857</v>
+        <v>1975.5217</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1532.05122</v>
+        <v>1369.77508</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1497.64711</v>
+        <v>1320.74449</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2550.7935</v>
+        <v>6013.888180000001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>8162.095369999999</v>
+        <v>10234.17611</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>11370.92875</v>
+        <v>7553.404710000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>10706.85321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>6838.865729999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>19393.227</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>6063818.140050001</v>
+        <v>6128454.5604</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>6766033.948539999</v>
+        <v>6823618.55238</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8794987.04431</v>
+        <v>8908265.744900001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>9692963.62073</v>
+        <v>9853474.694459999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>12241518.96889</v>
+        <v>12435790.33803</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>14149105.04852</v>
+        <v>14483007.33084</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>17123947.44548</v>
+        <v>17676523.80126</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>18583597.53637</v>
+        <v>18926575.74433</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>25776114.61133</v>
+        <v>25741491.04339</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>30218116.06259</v>
+        <v>31160900.99052</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>35290884.89059</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>36137484.24075</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>25250467.978</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>5085622.824189999</v>
+        <v>5115885.131100001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>5734954.003649999</v>
+        <v>5784324.51573</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>7448145.34103</v>
+        <v>7529021.18793</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>8258237.32533</v>
+        <v>8396284.65498</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>10558229.18637</v>
+        <v>10666112.36187</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>12114156.19247</v>
+        <v>12419463.90196</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>14796295.65093</v>
+        <v>15347439.57792</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>16063986.53381</v>
+        <v>16354261.26788</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>22835502.05726</v>
+        <v>22746305.22664</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>26531363.89164</v>
+        <v>27121820.93993</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>31003543.99161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>31601751.80702</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>21622923.726</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>126258.14933</v>
+        <v>109077.58188</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>127289.06995</v>
+        <v>126092.64724</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>81205.06290999999</v>
+        <v>74600.50108</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>162907.21516</v>
+        <v>170908.69755</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>233298.63582</v>
+        <v>226842.73471</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>171085.36019</v>
+        <v>157916.39119</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>198952.48793</v>
+        <v>176600.72337</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>381173.59513</v>
+        <v>347718.80222</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>470269.56286</v>
+        <v>455885.80362</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>653516.18168</v>
+        <v>667040.3954599999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>758218.5291099999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>797111.5189</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>620783.673</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>373111.30261</v>
+        <v>384714.44637</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>454275.04364</v>
+        <v>450965.0140200001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>601148.0380800001</v>
+        <v>606300.0083399999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>645733.10778</v>
+        <v>635627.9639300001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>916822.3364699997</v>
+        <v>908133.1178800002</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1143371.09415</v>
+        <v>1152177.71099</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1157866.2989</v>
+        <v>1202864.18695</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1726088.60884</v>
+        <v>1760094.86285</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3279402.79995</v>
+        <v>3163171.24425</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3047529.86097</v>
+        <v>3074963.58381</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2167751.26656</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2137666.23826</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3875130.816</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>4578409.900850001</v>
+        <v>4614669.37949</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>5138533.42842</v>
+        <v>5188503.69853</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>6736532.452889999</v>
+        <v>6812239.32875</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>7429435.39351</v>
+        <v>7568317.942859999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>9365969.48659</v>
+        <v>9478428.735989999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>10736759.12851</v>
+        <v>11025310.81325</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>13330293.33526</v>
+        <v>13806593.73722</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>13846712.34249</v>
+        <v>14116884.48905</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>18915223.89225</v>
+        <v>18938212.30039</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>22380364.52753</v>
+        <v>22892729.38307</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>27795527.40406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>28362335.05627</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>16690959.246</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>7843.4714</v>
+        <v>7423.723359999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>14856.46164</v>
+        <v>18763.15594</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>29259.78715</v>
+        <v>35881.34976</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>20161.60888</v>
+        <v>21430.05064</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>42138.72749</v>
+        <v>52707.77329</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>62940.60962</v>
+        <v>84058.98652999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>109183.52884</v>
+        <v>161380.93038</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>110011.98735</v>
+        <v>129563.11376</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>170605.8022</v>
+        <v>189035.87838</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>449953.3214600001</v>
+        <v>487087.57759</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>282046.79188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>304638.99359</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>436049.991</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>978195.3158600001</v>
+        <v>1012569.4293</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1031079.94489</v>
+        <v>1039294.03665</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1346841.70328</v>
+        <v>1379244.55697</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1434726.2954</v>
+        <v>1457190.03948</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1683289.78252</v>
+        <v>1769677.97616</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2034948.85605</v>
+        <v>2063543.42888</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2327651.79455</v>
+        <v>2329084.22334</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2519611.00256</v>
+        <v>2572314.47645</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2940612.55407</v>
+        <v>2995185.81675</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3686752.17095</v>
+        <v>4039080.05059</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4287340.898979999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4535732.43373</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3627544.252</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>806980.28536</v>
+        <v>805257.3827</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>891092.3733</v>
+        <v>868580.66522</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1113198.83704</v>
+        <v>1106723.59952</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1193335.91819</v>
+        <v>1183374.08244</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1369072.23587</v>
+        <v>1359971.98501</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1607742.19464</v>
+        <v>1583981.39093</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1898171.08813</v>
+        <v>1909325.50767</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2133878.08248</v>
+        <v>2137676.19307</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2391929.41814</v>
+        <v>2450225.50432</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2948942.23378</v>
+        <v>3036739.377330001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3364870.54187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3339702.322790001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3058742.271</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>4734.16851</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>4737.70419</v>
+        <v>2059.43103</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>7508.30862</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>8560.218440000001</v>
+        <v>8554.46543</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>10797.07984</v>
+        <v>10795.77895</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>17373.18719</v>
+        <v>17177.79657</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>19219.62004</v>
+        <v>19081.82801</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>25862.45616</v>
+        <v>25691.06229</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1637.12784</v>
+        <v>1516.11594</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>5825.45076</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>19133.30877</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16164.13961</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>18707.58</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>125334.43517</v>
+        <v>132232.52022</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>130866.4727</v>
+        <v>133406.05794</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>199094.94065</v>
+        <v>201750.47746</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>206138.7234</v>
+        <v>191243.67003</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>248036.02335</v>
+        <v>254904.98675</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>289657.42289</v>
+        <v>285308.57789</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>374424.87404</v>
+        <v>383650.36398</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>352696.50073</v>
+        <v>399611.5646899999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>483246.5571999999</v>
+        <v>530736.1991300001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>694056.4702200001</v>
+        <v>759336.24165</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>833620.48807</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>843596.4654</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>664051.64</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>676911.6816799999</v>
+        <v>668290.6939699999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>755488.19641</v>
+        <v>733115.17625</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>906595.58777</v>
+        <v>897464.8134399998</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>978636.9763499999</v>
+        <v>983575.94698</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1110239.13268</v>
+        <v>1094271.21931</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1300711.58456</v>
+        <v>1281495.01647</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1504526.59405</v>
+        <v>1506593.31568</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1755319.12559</v>
+        <v>1712373.56609</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1907045.7331</v>
+        <v>1917973.18925</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2249060.3128</v>
+        <v>2271577.68492</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2512116.74503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2479941.71778</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2375983.051</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>171215.0305</v>
+        <v>207312.0466</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>139987.57159</v>
+        <v>170713.37143</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>233642.86624</v>
+        <v>272520.95745</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>241390.37721</v>
+        <v>273815.95704</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>314217.54665</v>
+        <v>409705.99115</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>427206.6614099999</v>
+        <v>479562.03795</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>429480.70642</v>
+        <v>419758.71567</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>385732.9200800001</v>
+        <v>434638.28338</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>548683.13593</v>
+        <v>544960.31243</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>737809.93717</v>
+        <v>1002340.67326</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>922470.3571100001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1196030.11094</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>568801.981</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>279087.17863</v>
+        <v>226403.52763</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>218883.111</v>
+        <v>199853.05545</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>317953.0967</v>
+        <v>296619.52805</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>217589.76347</v>
+        <v>222647.7807</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>412358.9434700001</v>
+        <v>346903.76933</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>412442.49103</v>
+        <v>419063.4252999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>676181.33627</v>
+        <v>824725.5955000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>604028.88729</v>
+        <v>527226.09375</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>756855.7825699999</v>
+        <v>916647.9384700001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2547950.95005</v>
+        <v>2587547.59589</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1717933.12147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1793326.36011</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2356458.106</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>10973.80027</v>
+        <v>11828.7422</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>8171.123479999999</v>
+        <v>4742.90993</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>8951.16223</v>
+        <v>4422.688909999999</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>11048.17521</v>
+        <v>6947.34488</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>13541.42401</v>
+        <v>16581.96486</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>9087.160150000002</v>
+        <v>4769.813990000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>11969.78771</v>
+        <v>7430.557409999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>18241.28298</v>
+        <v>12107.71605</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>19512.40615999999</v>
+        <v>7373.5898</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>87869.19349999998</v>
+        <v>41024.89267</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>80586.57656000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>35808.12477999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>37560.942</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>4148.026879999999</v>
+        <v>1682.98915</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>2669.95991</v>
+        <v>2586.17904</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>5799.65823</v>
+        <v>8663.090609999999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>4155.95251</v>
+        <v>11707.68671</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>20815.36317</v>
+        <v>11072.96065</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>18649.74965</v>
+        <v>22115.32842</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>22857.64922</v>
+        <v>27261.13952</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>26781.52413</v>
+        <v>19933.62428</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>23616.53211</v>
+        <v>28234.8742</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>29212.36307</v>
+        <v>20967.11317</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>38858.92912000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>41611.39894</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>4168.583</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>25963.94091</v>
+        <v>34049.04341</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>25189.28101</v>
+        <v>21253.03028</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>25547.32511</v>
+        <v>24374.61438</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>33457.00786</v>
+        <v>31809.76798</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>31698.64901</v>
+        <v>34981.16852000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>46298.88313</v>
+        <v>56489.60522</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>59852.69528</v>
+        <v>50156.46648999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>63918.22987</v>
+        <v>43018.51294</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>71351.60739</v>
+        <v>61080.57781</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>179767.87865</v>
+        <v>298451.37731</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>208054.25328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>324889.47274</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>152133.77</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>7463.20991</v>
+        <v>7998.91743</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>9983.55082</v>
+        <v>10005.98112</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>12486.59769</v>
+        <v>12474.09416</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>10816.06021</v>
+        <v>10431.69227</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>18026.65711</v>
+        <v>17152.06955</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>16874.03843</v>
+        <v>17615.9832</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>17628.68983</v>
+        <v>17180.63786</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>15497.89619</v>
+        <v>14692.22676</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>22637.45982</v>
+        <v>22534.49886</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>29435.27555</v>
+        <v>28921.22151000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>29029.39151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>27602.40395</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>18683.528</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>4119.02106</v>
+        <v>4273.31049</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>3543.89407</v>
+        <v>3882.65482</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3610.44164</v>
+        <v>2861.332440000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>6132.587710000001</v>
+        <v>2996.95515</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>5243.10254</v>
+        <v>4432.50326</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>5325.534000000001</v>
+        <v>7719.66436</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4935.70304</v>
+        <v>4235.59434</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6396.68824</v>
+        <v>6499.16284</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>9731.84238</v>
+        <v>9723.793230000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>24984.81258</v>
+        <v>29635.01828</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>20634.59988</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>37924.25328999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>28834.45</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>13594.08924</v>
+        <v>10820.36978</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>3634.624739999999</v>
+        <v>2806.90731</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1734.20339</v>
+        <v>1423.21295</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>4053.64111</v>
+        <v>2255.42874</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>16840.33504</v>
+        <v>15391.87719</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>38578.17590000001</v>
+        <v>25080.25504</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4345.64653</v>
+        <v>31630.51158000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>5692.96509</v>
+        <v>3627.718619999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>26142.14925</v>
+        <v>8653.92362</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>50529.25282</v>
+        <v>41715.75489</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>22892.94257</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>23039.00289</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>26228.483</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>181389.068</v>
+        <v>132352.55394</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>137100.75905</v>
+        <v>126847.66433</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>215597.0521999999</v>
+        <v>218885.21385</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>102475.41431</v>
+        <v>127233.86823</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>221879.26557</v>
+        <v>208227.3571</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>194172.5518</v>
+        <v>227382.52298</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>465858.7899499999</v>
+        <v>626803.28827</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>358937.6620499999</v>
+        <v>347951.34813</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>439766.30383</v>
+        <v>659461.0776099999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1925986.19604</v>
+        <v>1949796.6875</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1091218.68907</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1113471.55986</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1869036.79</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>280.79877</v>
+        <v>101.84938</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>82.40015</v>
@@ -2057,40 +2103,45 @@
         <v>2.70964</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>428.0360899999999</v>
+        <v>484.28961</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1673.88323</v>
+        <v>113.87239</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>338.81738</v>
+        <v>327.93238</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>2492.18418</v>
+        <v>2427.13492</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>67.12267999999999</v>
+        <v>33.94705</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>803.85973</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>802.9973200000001</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>198.108</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>242.24426</v>
+        <v>241.15222</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>246.40273</v>
+        <v>246.40268</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>85.67261000000001</v>
+        <v>21.81238</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>39.30746</v>
+        <v>30.71327</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>8.385719999999999</v>
@@ -2099,301 +2150,341 @@
         <v>480.02151</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>446.26734</v>
+        <v>449.16682</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>0</v>
+        <v>4476.72999</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>30.99619</v>
+        <v>28.2409</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>250.18003</v>
+        <v>366.56706</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>30912.97933</v>
+        <v>23054.59963</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>28261.11504</v>
+        <v>27398.92579</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>44137.24814</v>
+        <v>23489.73291</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>45375.29338</v>
+        <v>29197.99976</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>84303.05166</v>
+        <v>39052.77284000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>82548.34036999999</v>
+        <v>56925.94097</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>86612.22414000002</v>
+        <v>59464.36082</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>108223.82136</v>
+        <v>74591.12175999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>141574.30126</v>
+        <v>117130.22752</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>219848.67513</v>
+        <v>176635.01645</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>225853.87975</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>188177.14634</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>219613.452</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>210267.96808</v>
+        <v>157420.9126</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>151811.6801</v>
+        <v>134723.45173</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>249978.86779</v>
+        <v>283850.71939</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>141818.76621</v>
+        <v>148629.90618</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>317873.19693</v>
+        <v>323992.3301</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>263178.82117</v>
+        <v>273103.70073</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>546290.8104499999</v>
+        <v>716169.67803</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>471614.34525</v>
+        <v>471543.20244</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>562184.6692199999</v>
+        <v>733310.28074</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2383170.02792</v>
+        <v>2388692.102359999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1291759.07657</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1305611.67764</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2075776.493</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>3491.65782</v>
+        <v>2758.31809</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>3014.63444</v>
+        <v>2900.07914</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>8292.74415</v>
+        <v>7918.003320000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>6804.0237</v>
+        <v>6637.143670000002</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>9211.011640000001</v>
+        <v>9208.79297</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>5766.433819999999</v>
+        <v>6146.687039999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>7646.55781</v>
+        <v>8041.2003</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>4088.66031</v>
+        <v>4940.76699</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>17684.87369</v>
+        <v>17319.22358</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>28347.35162</v>
+        <v>26910.70709</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>36905.97411</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>35087.82553</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>15514.941</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>10602.77381</v>
+        <v>12408.95392</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>7220.723800000001</v>
+        <v>7704.33651</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>7518.77936</v>
+        <v>7040.600079999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>17866.91429</v>
+        <v>17077.71555</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>17340.30603</v>
+        <v>18249.52048</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>12749.68233</v>
+        <v>18066.3511</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>19420.00966</v>
+        <v>18682.87735</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>25097.20285</v>
+        <v>23501.92916</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>33377.48858999999</v>
+        <v>27678.97374</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>70421.00162000001</v>
+        <v>81352.53165999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>89272.07695</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>98457.07571</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>45199.671</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>856.9119800000001</v>
+        <v>255.99792</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>159.21578</v>
+        <v>558.94615</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>771.34419</v>
+        <v>2394.283390000001</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>3398.60017</v>
+        <v>992.18915</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2775.93938</v>
+        <v>185.80856</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1660.19886</v>
+        <v>5453.26773</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1313.8392</v>
+        <v>933.65923</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1283.97382</v>
+        <v>172.95214</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>995.92037</v>
+        <v>157.27601</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>24354.55876</v>
+        <v>6314.95547</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>16259.2042</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1081.67747</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>55479.414</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>185653.23484</v>
+        <v>138296.90346</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>128011.82243</v>
+        <v>116283.59565</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>225065.7021</v>
+        <v>259699.7874</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>93376.45761</v>
+        <v>110271.6655</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>240777.5182</v>
+        <v>277356.77823</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>210573.36205</v>
+        <v>219994.48152</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>488449.7177999999</v>
+        <v>666601.7747800001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>404163.11788</v>
+        <v>407818.31565</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>469765.95435</v>
+        <v>643516.74392</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2096882.92623</v>
+        <v>2102383.24867</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1091313.0033</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1110516.96282</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1896199.094</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>442.35466</v>
+        <v>38.19009</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>93.8155</v>
+        <v>74.87982000000001</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>37</v>
+        <v>47.64138</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>15.02988</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>139.35931</v>
+        <v>136.53428</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>241.67535</v>
+        <v>285.52776</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>500.2338</v>
+        <v>463.54265</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>449.97338</v>
+        <v>423.53221</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>2723.95746</v>
+        <v>2594.55177</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>23.43227</v>
+        <v>23.39378</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>751.73252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>751.7325199999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>1842.793</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>55.19705</v>
+        <v>55.17845</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>68.41933</v>
@@ -2414,7 +2505,7 @@
         <v>217.75011</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>226.2672</v>
+        <v>226.26685</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>12.52672</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>36.96094</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>9165.83792</v>
+        <v>3607.370669999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>13243.04882</v>
+        <v>7133.195129999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>8197.41575</v>
+        <v>6654.52158</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>20130.71923</v>
+        <v>13409.1411</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>47598.64118999999</v>
+        <v>18824.4744</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>32038.23328</v>
+        <v>23008.1501</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>28742.70207</v>
+        <v>21228.87361</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>36305.14981</v>
+        <v>34459.43943999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>37623.94804</v>
+        <v>42030.985</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>163140.75742</v>
+        <v>171707.26569</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>57220.12455</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>59679.44265</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>61540.574</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>77652.27769</v>
+        <v>78335.56525999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>72130.49631</v>
+        <v>74506.55971</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>93846.05876</v>
+        <v>140821.95092</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>121353.60787</v>
+        <v>131864.21325</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>155114.54552</v>
+        <v>144681.58909</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>202397.68067</v>
+        <v>215331.72406</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>242067.94632</v>
+        <v>309529.3001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>286960.99039</v>
+        <v>282552.7131000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>380121.82049</v>
+        <v>614519.9099000001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>792865.93273</v>
+        <v>883163.29839</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>875560.55515</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>901306.68077</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>659616.149</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>73389.01168</v>
+        <v>71590.95912</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>68816.28035</v>
+        <v>68038.24707</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>86404.46032</v>
+        <v>95484.80895000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>114150.34951</v>
+        <v>112404.11944</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>139418.81616</v>
+        <v>127869.84251</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>188054.25776</v>
+        <v>178468.05857</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>226019.83705</v>
+        <v>248578.89304</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>275036.27605</v>
+        <v>263954.9348</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>355952.02491</v>
+        <v>364287.79302</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>760994.21397</v>
+        <v>852167.3125100001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>841146.04395</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>868292.0557399999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>629891.281</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>4263.266009999999</v>
+        <v>6744.60614</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>3314.21596</v>
+        <v>6468.31264</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>7441.59844</v>
+        <v>45337.14196999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>7203.25836</v>
+        <v>19460.09381</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>15695.72936</v>
+        <v>16811.74658</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>14343.42291</v>
+        <v>36863.66549</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>16048.10927</v>
+        <v>60950.40706000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>11924.71434</v>
+        <v>18597.7783</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>24169.79558</v>
+        <v>250232.11688</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>31871.71876</v>
+        <v>30995.98588</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>34414.51119999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>33014.62503</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>29724.868</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>162381.96336</v>
+        <v>197959.09637</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>134928.50618</v>
+        <v>161336.41544</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>207771.03639</v>
+        <v>144467.81519</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>195807.7666</v>
+        <v>215969.61831</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>253588.74767</v>
+        <v>287935.84129</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>374072.6506000001</v>
+        <v>410190.03846</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>317303.28592</v>
+        <v>218785.33304</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>231186.47173</v>
+        <v>207768.46159</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>363232.42879</v>
+        <v>113778.06026</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>109724.92657</v>
+        <v>318032.8684</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>473083.84686</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>782438.1126400001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>189867.445</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>59804.10128</v>
+        <v>38264.13204</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>56135.39434</v>
+        <v>45715.5582</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>77543.37140999999</v>
+        <v>59344.64354</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>82317.74325999999</v>
+        <v>73891.52419</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>122017.21682</v>
+        <v>95860.32991999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>154162.36809</v>
+        <v>139958.55872</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>181261.46133</v>
+        <v>225298.96438</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>245310.82113</v>
+        <v>256564.99184</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>246013.72466</v>
+        <v>235131.75143</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>441540.96622</v>
+        <v>416619.57954</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>427870.54819</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>397484.3085400001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>537709.129</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>2536.31632</v>
+        <v>1842.67788</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1286.25275</v>
+        <v>945.5953499999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1421.54604</v>
+        <v>520.8295000000001</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1144.49959</v>
+        <v>1203.29586</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>769.5681</v>
+        <v>542.7315</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2699.73861</v>
+        <v>2640.26002</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1473.71872</v>
+        <v>1512.10009</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2862.45769</v>
+        <v>18969.09911</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4006.30492</v>
+        <v>4137.669019999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>5895.94534</v>
+        <v>5557.814679999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>10375.49377</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>9874.01073</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3746.951</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>57267.78495999999</v>
+        <v>36421.45415999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>54849.14159</v>
+        <v>44769.96285</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>76121.82537000001</v>
+        <v>58823.81404</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>81173.24367</v>
+        <v>72688.22833</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>121247.64872</v>
+        <v>95317.59841999998</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>151462.62948</v>
+        <v>137318.2987</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>179787.74261</v>
+        <v>223786.86429</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>242448.36344</v>
+        <v>237595.89273</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>242007.41974</v>
+        <v>230994.08241</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>435645.02088</v>
+        <v>411061.76486</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>417495.0544199999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>387610.29781</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>533962.178</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>56708.8375</v>
+        <v>40252.14098999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>43073.34571</v>
+        <v>43216.66037999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>230414.80891</v>
+        <v>235863.70612</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>62032.36308</v>
+        <v>74050.51264999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>90601.90718000001</v>
+        <v>105469.89834</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>188026.5658</v>
+        <v>170591.16822</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>117454.14756</v>
+        <v>109641.13375</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>292214.1446499999</v>
+        <v>251407.16696</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>172736.35558</v>
+        <v>146731.72042</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>374137.11242</v>
+        <v>284017.80501</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>311886.30987</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>258339.57424</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>220551.741</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1643.57616</v>
+        <v>1582.90206</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>111.60031</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>200.30599</v>
+        <v>188.99607</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2230.86672</v>
+        <v>50.91189</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>527.1841899999999</v>
+        <v>97.41030000000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1729.18658</v>
+        <v>8540.217339999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>848.9268</v>
+        <v>407.50127</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>5900.85965</v>
+        <v>11971.94789</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>4095.710689999999</v>
+        <v>2260.38034</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>2460.22271</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2591.56342</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2666.47971</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>17640.433</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>6924.19209</v>
+        <v>7352.007050000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>5325.266239999999</v>
+        <v>5030.804349999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>5064.478139999999</v>
+        <v>4978.52879</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>5384.482559999999</v>
+        <v>4679.97508</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>7126.95671</v>
+        <v>7051.342470000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>5317.66647</v>
+        <v>6157.222839999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>8404.28824</v>
+        <v>6676.196840000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>6872.99695</v>
+        <v>7407.069449999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>9821.40646</v>
+        <v>8255.321699999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>13975.12292</v>
+        <v>15759.19107</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>19286.64293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>25286.80043</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>17200.289</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>48141.06925</v>
+        <v>31317.23188</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>37636.47916</v>
+        <v>38074.25572</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>225150.02478</v>
+        <v>230696.18126</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>54417.0138</v>
+        <v>69319.62568000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>82947.76628000001</v>
+        <v>98321.14556999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>180979.71275</v>
+        <v>155893.72804</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>108200.93252</v>
+        <v>102557.43564</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>279440.28805</v>
+        <v>232028.14962</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>158819.23843</v>
+        <v>136216.01838</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>357701.76679</v>
+        <v>265798.39123</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>290008.10352</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>230386.2941</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>185711.019</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>165477.22714</v>
+        <v>195971.08742</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>147990.55481</v>
+        <v>163835.31326</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>54899.59889</v>
+        <v>-32051.24739</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>216093.14678</v>
+        <v>215810.62985</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>285004.05731</v>
+        <v>278326.27287</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>340208.45289</v>
+        <v>379557.42896</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>381110.59969</v>
+        <v>334443.16367</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>184283.14821</v>
+        <v>212926.28647</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>436509.79787</v>
+        <v>202178.09127</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>177128.78037</v>
+        <v>450634.64293</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>589068.0851800001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>921582.8469400001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>507024.833</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>42923.58957</v>
+        <v>47585.22009</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>45377.1491</v>
+        <v>44138.49981</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>70009.71251</v>
+        <v>64274.41924999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>65448.45441</v>
+        <v>64185.82429</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>92357.07762000001</v>
+        <v>98257.62322999998</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>106283.08097</v>
+        <v>108166.46534</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>129172.29168</v>
+        <v>112402.811</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>123440.20062</v>
+        <v>115481.2224</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>144576.6583</v>
+        <v>137945.5196</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>200866.40493</v>
+        <v>241001.00748</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>230185.17278</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>285562.44304</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>221295.134</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>122553.63757</v>
+        <v>148385.86733</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>102613.40571</v>
+        <v>119696.81345</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-15110.11362</v>
+        <v>-96325.66663999998</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>150644.69237</v>
+        <v>151624.80556</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>192646.97969</v>
+        <v>180068.64964</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>233925.37192</v>
+        <v>271390.96362</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>251938.30801</v>
+        <v>222040.35267</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>60842.94759</v>
+        <v>97445.06406999998</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>291933.1395700001</v>
+        <v>64232.57167</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-23737.62456</v>
+        <v>209633.63545</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>358882.9124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>636020.4038999998</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>285729.699</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1754</v>
+        <v>1590</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1832</v>
+        <v>1662</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2100</v>
+        <v>1896</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2339</v>
+        <v>2101</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2282</v>
+        <v>2114</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2526</v>
+        <v>2325</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2669</v>
+        <v>2410</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2827</v>
+        <v>2492</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>3108</v>
+        <v>2680</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2566</v>
+        <v>2478</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1879</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>